--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_1_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_1_29.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2519333.171326782</v>
+        <v>2594862.840991588</v>
       </c>
     </row>
     <row r="7">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9471856.057926977</v>
+        <v>9471856.057926981</v>
       </c>
     </row>
     <row r="11">
@@ -656,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>163.8950372953901</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -671,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -719,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>310.2076895021003</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -750,7 +752,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.5310119231965</v>
+        <v>136.5310119231963</v>
       </c>
       <c r="H3" t="n">
         <v>104.3883541553076</v>
@@ -865,25 +867,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>129.0246247964035</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>223.1498336210773</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -905,16 +907,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>147.5486812438831</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,25 +943,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>109.4422623037131</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1051,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1063,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>39.10494780290184</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1075,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1117,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>224.6854918269128</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,22 +1132,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>288.4186882821381</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1178,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481165</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1193,10 +1195,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>253.5111876485553</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1227,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1291,19 +1293,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>30.54110646053108</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1312,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853697</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,10 +1335,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491427</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1348,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1357,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>194.3185979147724</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1388,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1531,22 +1533,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1585,16 +1587,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>143.3158222056515</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>128.6068689931185</v>
       </c>
     </row>
     <row r="14">
@@ -1765,10 +1767,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1810,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>98.09286100288274</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1850,7 +1852,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722616</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1999,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>124.0982626358952</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>48.6625179049547</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2178,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2208,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T21" t="n">
         <v>192.9654699154601</v>
@@ -2236,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2245,19 +2247,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>19.78862110391611</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,22 +2289,22 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>153.8202029857952</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2336,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2494,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>181.380731330731</v>
       </c>
       <c r="T25" t="n">
-        <v>139.1537278750038</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2564,7 +2566,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>411.9645167896915</v>
@@ -2573,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2713,7 +2715,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>139.1537278750036</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2722,7 +2724,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2761,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2773,13 +2775,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>92.34501372154531</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2807,7 +2809,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H29" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113192</v>
       </c>
       <c r="I29" t="n">
         <v>81.77913505274074</v>
@@ -2843,7 +2845,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U29" t="n">
         <v>251.078595249801</v>
@@ -2889,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2953,19 +2955,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>8.856576811534087</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>115.5269768002178</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
@@ -3013,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3026,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3041,7 +3043,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H32" t="n">
         <v>305.2872491113177</v>
@@ -3126,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,19 +3186,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>79.73564215572213</v>
+        <v>162.6705139454673</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>166.4935684633776</v>
@@ -3235,10 +3237,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
@@ -3253,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3263,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3363,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3424,13 +3426,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3439,10 +3441,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3478,16 +3480,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>221.9323490168575</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>264.6733154710968</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3503,7 +3505,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710068</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3569,7 +3571,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560527</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3600,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>161.8175117958952</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3667,7 +3669,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3676,10 +3678,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>30.00517575263051</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,7 +3711,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
@@ -3718,10 +3720,10 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3794,7 +3796,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U41" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3837,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3907,16 +3909,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,22 +3948,22 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>256.3432811758641</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>170.5057467104353</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -4028,7 +4030,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U44" t="n">
         <v>251.078595249801</v>
@@ -4074,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4147,13 +4149,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,25 +4182,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>101.8625755465368</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>203.8569973636905</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2476.569858826099</v>
+        <v>1233.603060210037</v>
       </c>
       <c r="C2" t="n">
-        <v>2107.607341885688</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="D2" t="n">
-        <v>1749.341643278937</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4331,10 +4333,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4352,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W2" t="n">
-        <v>2642.120401548716</v>
+        <v>2383.80799051105</v>
       </c>
       <c r="X2" t="n">
-        <v>2642.120401548716</v>
+        <v>2010.34223224997</v>
       </c>
       <c r="Y2" t="n">
-        <v>2642.120401548716</v>
+        <v>1620.202900274159</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4410,22 +4412,22 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.2060027641987</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4446,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4513,22 +4515,22 @@
         <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>597.8010803716834</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>597.8010803716834</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W4" t="n">
-        <v>502.7251118619119</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>274.7355609638946</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
         <v>53.94298182036445</v>
@@ -4541,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>443.7744035713887</v>
+        <v>1470.569074795015</v>
       </c>
       <c r="C5" t="n">
-        <v>74.81188663097703</v>
+        <v>1101.606557854603</v>
       </c>
       <c r="D5" t="n">
-        <v>74.81188663097703</v>
+        <v>1101.606557854603</v>
       </c>
       <c r="E5" t="n">
-        <v>74.81188663097703</v>
+        <v>1101.606557854603</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4592,25 +4594,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2531.572661847995</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2277.810876486087</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V5" t="n">
-        <v>1946.747989142516</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W5" t="n">
-        <v>1593.979333872402</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="X5" t="n">
-        <v>1220.513575611322</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="Y5" t="n">
-        <v>830.3742436355105</v>
+        <v>1857.168914859137</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4662,25 +4664,25 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>262.3791120239298</v>
+        <v>246.4894537511405</v>
       </c>
       <c r="C7" t="n">
-        <v>93.44292909602288</v>
+        <v>246.4894537511405</v>
       </c>
       <c r="D7" t="n">
-        <v>93.44292909602288</v>
+        <v>246.4894537511405</v>
       </c>
       <c r="E7" t="n">
-        <v>93.44292909602288</v>
+        <v>246.4894537511405</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>444.0275768541695</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="W7" t="n">
-        <v>444.0275768541695</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="X7" t="n">
-        <v>444.0275768541695</v>
+        <v>246.4894537511405</v>
       </c>
       <c r="Y7" t="n">
-        <v>444.0275768541695</v>
+        <v>246.4894537511405</v>
       </c>
     </row>
     <row r="8">
@@ -4778,34 +4780,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1995.909162857192</v>
+        <v>1139.146815977589</v>
       </c>
       <c r="C8" t="n">
-        <v>1626.94664591678</v>
+        <v>770.1842990371772</v>
       </c>
       <c r="D8" t="n">
-        <v>1268.68094731003</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="E8" t="n">
-        <v>882.8926947117852</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>67.86638588177357</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
         <v>881.2824271224079</v>
@@ -4817,13 +4819,13 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
         <v>2642.120401548716</v>
@@ -4841,13 +4843,13 @@
         <v>2642.120401548716</v>
       </c>
       <c r="W8" t="n">
-        <v>2642.120401548716</v>
+        <v>2289.351746278602</v>
       </c>
       <c r="X8" t="n">
-        <v>2386.048494833003</v>
+        <v>1915.885988017522</v>
       </c>
       <c r="Y8" t="n">
-        <v>1995.909162857192</v>
+        <v>1525.746656041711</v>
       </c>
     </row>
     <row r="9">
@@ -4872,22 +4874,22 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="K9" t="n">
         <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>713.8062203571351</v>
       </c>
       <c r="M9" t="n">
         <v>1237.953133915166</v>
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>698.7120650600561</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="C10" t="n">
-        <v>667.8624625746712</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="D10" t="n">
-        <v>517.7458231623355</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="E10" t="n">
-        <v>369.8327295799424</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="F10" t="n">
-        <v>222.942782082032</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866327</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502503</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594904</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600566</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600561</v>
+        <v>550.5654064942406</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600561</v>
+        <v>550.5654064942406</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600561</v>
+        <v>550.5654064942406</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600561</v>
+        <v>550.5654064942406</v>
       </c>
       <c r="V10" t="n">
-        <v>698.7120650600561</v>
+        <v>295.8809182883538</v>
       </c>
       <c r="W10" t="n">
-        <v>698.7120650600561</v>
+        <v>295.8809182883538</v>
       </c>
       <c r="X10" t="n">
-        <v>698.7120650600561</v>
+        <v>295.8809182883538</v>
       </c>
       <c r="Y10" t="n">
-        <v>698.7120650600561</v>
+        <v>99.59950625323009</v>
       </c>
     </row>
     <row r="11">
@@ -5033,7 +5035,7 @@
         <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
@@ -5042,7 +5044,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5066,25 +5068,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5118,28 +5120,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K12" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L12" t="n">
-        <v>659.3731057211721</v>
+        <v>1099.417155020477</v>
       </c>
       <c r="M12" t="n">
-        <v>966.6932390011336</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N12" t="n">
-        <v>1771.104817265284</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O12" t="n">
-        <v>2050.644882483981</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P12" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028584</v>
+        <v>656.1762782006411</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028584</v>
+        <v>656.1762782006411</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028584</v>
+        <v>506.0596387883054</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028584</v>
+        <v>506.0596387883054</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5200,19 +5202,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5224,25 +5226,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473455</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T13" t="n">
         <v>1075.21084526296</v>
       </c>
       <c r="U13" t="n">
-        <v>786.0822064765186</v>
+        <v>786.0822064765184</v>
       </c>
       <c r="V13" t="n">
-        <v>531.3977182706318</v>
+        <v>786.0822064765184</v>
       </c>
       <c r="W13" t="n">
-        <v>241.9805482336712</v>
+        <v>786.0822064765184</v>
       </c>
       <c r="X13" t="n">
-        <v>97.21709146028584</v>
+        <v>786.0822064765184</v>
       </c>
       <c r="Y13" t="n">
-        <v>97.21709146028584</v>
+        <v>656.1762782006411</v>
       </c>
     </row>
     <row r="14">
@@ -5276,10 +5278,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5355,25 +5357,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,10 +5412,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028584</v>
+        <v>416.2699138005285</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028584</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D16" t="n">
         <v>97.21709146028584</v>
@@ -5458,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1382.222354598086</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1158.436939387592</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U16" t="n">
-        <v>869.3083006011506</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="V16" t="n">
-        <v>614.6238123952637</v>
+        <v>865.0520438420759</v>
       </c>
       <c r="W16" t="n">
-        <v>325.2066423583032</v>
+        <v>865.0520438420759</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028584</v>
+        <v>637.0624929440586</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028584</v>
+        <v>416.2699138005285</v>
       </c>
     </row>
     <row r="17">
@@ -5495,43 +5497,43 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
@@ -5592,25 +5594,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>503.0396462065435</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="C19" t="n">
-        <v>334.1034632786366</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="D19" t="n">
-        <v>334.1034632786366</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="E19" t="n">
-        <v>334.1034632786366</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F19" t="n">
-        <v>334.1034632786366</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G19" t="n">
-        <v>334.1034632786366</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5695,28 +5697,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>1275.130855347408</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U19" t="n">
-        <v>1275.130855347408</v>
+        <v>898.7925182488382</v>
       </c>
       <c r="V19" t="n">
-        <v>1020.446367141521</v>
+        <v>644.1080300429513</v>
       </c>
       <c r="W19" t="n">
-        <v>731.0291971045608</v>
+        <v>644.1080300429513</v>
       </c>
       <c r="X19" t="n">
-        <v>503.0396462065435</v>
+        <v>644.1080300429513</v>
       </c>
       <c r="Y19" t="n">
-        <v>503.0396462065435</v>
+        <v>594.9539715530981</v>
       </c>
     </row>
     <row r="20">
@@ -5741,10 +5743,10 @@
         <v>904.3190116155899</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805464</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
@@ -5753,22 +5755,22 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
@@ -5829,28 +5831,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>674.428562457161</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636251</v>
+        <v>534.5429807341677</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>841.8631140141295</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.37645130762</v>
+        <v>1517.99338900868</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526317</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3966.372044102668</v>
+        <v>826.1356072130308</v>
       </c>
       <c r="C22" t="n">
-        <v>3797.435861174762</v>
+        <v>657.1994242851239</v>
       </c>
       <c r="D22" t="n">
-        <v>3647.319221762426</v>
+        <v>507.0827848727882</v>
       </c>
       <c r="E22" t="n">
-        <v>3627.330715596854</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="F22" t="n">
-        <v>3627.330715596854</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G22" t="n">
-        <v>3459.155393916675</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H22" t="n">
-        <v>3459.155393916675</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I22" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K22" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L22" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M22" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N22" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>4660.934562929845</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T22" t="n">
-        <v>4437.14914771935</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U22" t="n">
-        <v>4148.020508932908</v>
+        <v>1343.542328148009</v>
       </c>
       <c r="V22" t="n">
-        <v>4148.020508932908</v>
+        <v>1343.542328148009</v>
       </c>
       <c r="W22" t="n">
-        <v>4148.020508932908</v>
+        <v>1054.125158111048</v>
       </c>
       <c r="X22" t="n">
-        <v>4148.020508932908</v>
+        <v>826.1356072130308</v>
       </c>
       <c r="Y22" t="n">
-        <v>4148.020508932908</v>
+        <v>826.1356072130308</v>
       </c>
     </row>
     <row r="23">
@@ -5978,19 +5980,19 @@
         <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H23" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6005,7 +6007,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
@@ -6072,19 +6074,19 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>1288.32563221405</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1595.645765494011</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
-        <v>1925.508393158044</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>2205.048458376741</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2410.070939158951</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>3570.689985294728</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>3570.689985294728</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>3570.689985294728</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>3570.689985294728</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>3570.689985294728</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>3570.689985294728</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>3570.689985294728</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N25" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O25" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>4566.566609646086</v>
       </c>
       <c r="T25" t="n">
-        <v>1158.436939387592</v>
+        <v>4342.781194435593</v>
       </c>
       <c r="U25" t="n">
-        <v>869.3083006011506</v>
+        <v>4342.781194435593</v>
       </c>
       <c r="V25" t="n">
-        <v>614.6238123952637</v>
+        <v>4088.096706229706</v>
       </c>
       <c r="W25" t="n">
-        <v>325.2066423583032</v>
+        <v>3798.679536192745</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028584</v>
+        <v>3570.689985294728</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>3570.689985294728</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6205,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
         <v>1701.09316900344</v>
@@ -6218,7 +6220,7 @@
         <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
@@ -6236,7 +6238,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6257,16 +6259,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6312,7 +6314,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
         <v>1558.376451307619</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3774.981524342492</v>
+        <v>237.776412546148</v>
       </c>
       <c r="C28" t="n">
-        <v>3606.045341414585</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>3606.045341414585</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>3606.045341414585</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>4860.854573014292</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>4860.854573014292</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U28" t="n">
-        <v>4571.72593422785</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V28" t="n">
-        <v>4317.041446021964</v>
+        <v>755.183133481126</v>
       </c>
       <c r="W28" t="n">
-        <v>4223.763654384039</v>
+        <v>465.7659634441654</v>
       </c>
       <c r="X28" t="n">
-        <v>3995.774103486022</v>
+        <v>237.776412546148</v>
       </c>
       <c r="Y28" t="n">
-        <v>3774.981524342492</v>
+        <v>237.776412546148</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155904</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805485</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="30">
@@ -6537,25 +6539,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M30" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P30" t="n">
         <v>2328.464088060424</v>
@@ -6595,40 +6597,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028584</v>
+        <v>554.6108700904392</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028584</v>
+        <v>554.6108700904392</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028584</v>
+        <v>404.4942306781035</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028584</v>
+        <v>256.5811370957103</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028584</v>
+        <v>256.5811370957103</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J31" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6637,34 +6639,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S31" t="n">
-        <v>1382.222354598086</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T31" t="n">
-        <v>1158.436939387592</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U31" t="n">
-        <v>869.3083006011506</v>
+        <v>1098.712528333287</v>
       </c>
       <c r="V31" t="n">
-        <v>614.6238123952637</v>
+        <v>844.0280401273998</v>
       </c>
       <c r="W31" t="n">
-        <v>325.2066423583032</v>
+        <v>554.6108700904392</v>
       </c>
       <c r="X31" t="n">
-        <v>97.21709146028584</v>
+        <v>554.6108700904392</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.21709146028584</v>
+        <v>554.6108700904392</v>
       </c>
     </row>
     <row r="32">
@@ -6674,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
         <v>488.193237080547</v>
@@ -6695,10 +6697,10 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
         <v>889.2841917514083</v>
@@ -6710,40 +6712,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6774,31 +6776,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277033</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L33" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M33" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O33" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3858.289776731458</v>
+        <v>874.9271131227924</v>
       </c>
       <c r="C34" t="n">
-        <v>3777.748724048911</v>
+        <v>710.6134626728254</v>
       </c>
       <c r="D34" t="n">
-        <v>3777.748724048911</v>
+        <v>710.6134626728254</v>
       </c>
       <c r="E34" t="n">
-        <v>3777.748724048911</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F34" t="n">
-        <v>3777.748724048911</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G34" t="n">
-        <v>3609.573402368731</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H34" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I34" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K34" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M34" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N34" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q34" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R34" t="n">
-        <v>4749.779469576118</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S34" t="n">
-        <v>4549.85945949167</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T34" t="n">
-        <v>4549.85945949167</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U34" t="n">
-        <v>4260.730820705228</v>
+        <v>874.9271131227924</v>
       </c>
       <c r="V34" t="n">
-        <v>4260.730820705228</v>
+        <v>874.9271131227924</v>
       </c>
       <c r="W34" t="n">
-        <v>4260.730820705228</v>
+        <v>874.9271131227924</v>
       </c>
       <c r="X34" t="n">
-        <v>4260.730820705228</v>
+        <v>874.9271131227924</v>
       </c>
       <c r="Y34" t="n">
-        <v>4039.938241561698</v>
+        <v>874.9271131227924</v>
       </c>
     </row>
     <row r="35">
@@ -6911,7 +6913,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
@@ -6920,22 +6922,22 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805464</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
         <v>889.2841917514085</v>
@@ -6947,7 +6949,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
@@ -6956,7 +6958,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014292</v>
@@ -7002,13 +7004,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I36" t="n">
         <v>97.21709146028584</v>
@@ -7017,25 +7019,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M36" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028584</v>
+        <v>826.1356072130308</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028584</v>
+        <v>657.1994242851239</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028584</v>
+        <v>507.0827848727882</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I37" t="n">
         <v>97.21709146028584</v>
@@ -7099,10 +7101,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7111,34 +7113,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T37" t="n">
-        <v>1275.130855347408</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U37" t="n">
-        <v>1050.956765431391</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="V37" t="n">
-        <v>796.2722772255036</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="W37" t="n">
-        <v>506.8551071885429</v>
+        <v>1007.78407204327</v>
       </c>
       <c r="X37" t="n">
-        <v>278.8655562905255</v>
+        <v>1007.78407204327</v>
       </c>
       <c r="Y37" t="n">
-        <v>278.8655562905255</v>
+        <v>1007.78407204327</v>
       </c>
     </row>
     <row r="38">
@@ -7148,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
@@ -7163,7 +7165,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
@@ -7172,28 +7174,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
@@ -7205,19 +7207,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7239,40 +7241,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I39" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277033</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L39" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M39" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O39" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028584</v>
+        <v>425.8564518307261</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028584</v>
+        <v>425.8564518307261</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028584</v>
+        <v>425.8564518307261</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028584</v>
+        <v>277.943358248333</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028584</v>
+        <v>277.943358248333</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028584</v>
+        <v>277.943358248333</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028584</v>
+        <v>127.5253497962763</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028584</v>
@@ -7336,10 +7338,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7348,34 +7350,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R40" t="n">
         <v>1387.841167119728</v>
       </c>
       <c r="S40" t="n">
-        <v>1187.92115703528</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T40" t="n">
-        <v>964.135741824786</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U40" t="n">
-        <v>964.135741824786</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="V40" t="n">
-        <v>709.4512536188992</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="W40" t="n">
-        <v>709.4512536188992</v>
+        <v>874.6385818722736</v>
       </c>
       <c r="X40" t="n">
-        <v>481.4617027208818</v>
+        <v>646.6490309742562</v>
       </c>
       <c r="Y40" t="n">
-        <v>260.6691235773517</v>
+        <v>425.8564518307261</v>
       </c>
     </row>
     <row r="41">
@@ -7409,28 +7411,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
@@ -7476,13 +7478,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I42" t="n">
         <v>97.21709146028584</v>
@@ -7491,25 +7493,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M42" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3721.107993746784</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="C43" t="n">
-        <v>3721.107993746784</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D43" t="n">
-        <v>3721.107993746784</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E43" t="n">
-        <v>3721.107993746784</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F43" t="n">
-        <v>3721.107993746784</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>3721.107993746784</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M43" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N43" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O43" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q43" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R43" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S43" t="n">
-        <v>4660.934562929845</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T43" t="n">
-        <v>4437.14914771935</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U43" t="n">
-        <v>4148.020508932908</v>
+        <v>1016.198248099061</v>
       </c>
       <c r="V43" t="n">
-        <v>3893.336020727022</v>
+        <v>761.5137598931742</v>
       </c>
       <c r="W43" t="n">
-        <v>3721.107993746784</v>
+        <v>472.0965898562135</v>
       </c>
       <c r="X43" t="n">
-        <v>3721.107993746784</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="Y43" t="n">
-        <v>3721.107993746784</v>
+        <v>244.1070389581962</v>
       </c>
     </row>
     <row r="44">
@@ -7622,13 +7624,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
         <v>1315.304916405196</v>
@@ -7640,7 +7642,7 @@
         <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028584</v>
@@ -7661,13 +7663,13 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
@@ -7679,19 +7681,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7713,37 +7715,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I45" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>287.7778528277033</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L45" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M45" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O45" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P45" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7780,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>528.105874218302</v>
+        <v>434.3285960683721</v>
       </c>
       <c r="C46" t="n">
-        <v>359.1696912903951</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D46" t="n">
-        <v>359.1696912903951</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E46" t="n">
-        <v>359.1696912903951</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F46" t="n">
-        <v>359.1696912903951</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G46" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
         <v>97.21709146028584</v>
@@ -7810,10 +7812,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7822,34 +7824,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557902</v>
+        <v>1396.024780106856</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557902</v>
+        <v>1396.024780106856</v>
       </c>
       <c r="T46" t="n">
-        <v>1498.916270557902</v>
+        <v>1172.239364896361</v>
       </c>
       <c r="U46" t="n">
-        <v>1293.00011160468</v>
+        <v>883.1107261099196</v>
       </c>
       <c r="V46" t="n">
-        <v>1038.315623398793</v>
+        <v>883.1107261099196</v>
       </c>
       <c r="W46" t="n">
-        <v>748.8984533618321</v>
+        <v>883.1107261099196</v>
       </c>
       <c r="X46" t="n">
-        <v>748.8984533618321</v>
+        <v>655.1211752119023</v>
       </c>
       <c r="Y46" t="n">
-        <v>528.105874218302</v>
+        <v>434.3285960683721</v>
       </c>
     </row>
   </sheetData>
@@ -8058,7 +8060,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>145.0294169142008</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8076,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8310,10 +8312,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>199.0269485415595</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270189</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8541,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>435.923890002883</v>
+        <v>435.9238900028826</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8769,28 +8771,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>180.0237016735878</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>62.79465928983183</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>45.52166981132082</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9003,28 +9005,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>423.3376789165117</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>34.78428385445218</v>
@@ -9179,7 +9181,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714832</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
@@ -9240,28 +9242,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>34.78428385445218</v>
@@ -9477,10 +9479,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9489,19 +9491,19 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>349.7653003338557</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776749</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9720,7 +9722,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9732,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q24" t="n">
-        <v>127.6461250100647</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9881,7 +9883,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
@@ -9969,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10206,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10425,31 +10427,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>277.6717966208061</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10592,7 +10594,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10680,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776752</v>
+        <v>277.6717966208061</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10844,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,31 +10901,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>277.6717966208061</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11066,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928307</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11154,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776752</v>
+        <v>277.6717966208061</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11318,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,31 +11375,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23255,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23419,22 +23421,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23473,16 +23475,16 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>82.39383318338568</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>89.97778435897629</v>
       </c>
     </row>
     <row r="14">
@@ -23653,10 +23655,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23698,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>154.0447823209453</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>24.81556573164089</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>169.9221354471401</v>
       </c>
     </row>
     <row r="20">
@@ -24124,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24133,19 +24135,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>126.6453415426531</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,22 +24177,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>132.4171494127821</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24382,7 +24384,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>16.54007865287227</v>
       </c>
       <c r="T25" t="n">
-        <v>82.39383318338548</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24601,7 +24603,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>28.09309322362427</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24610,7 +24612,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
@@ -24649,7 +24651,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
@@ -24661,13 +24663,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>194.1779846150457</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24841,19 +24843,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>157.6369916518435</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>110.419245464272</v>
@@ -24883,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>82.39383318338545</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24901,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25072,19 +25074,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>87.5111789429057</v>
+        <v>4.576307153160542</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25123,10 +25125,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25141,7 +25143,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25312,13 +25314,13 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25327,10 +25329,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25366,16 +25368,16 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>64.30500338171984</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>21.84968286549423</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25546,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>18.01446838604213</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25555,7 +25557,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25564,10 +25566,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>80.41406971164146</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,7 +25599,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25606,10 +25608,10 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25795,16 +25797,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,22 +25836,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>29.89407122271325</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>116.0172516261557</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -26035,13 +26037,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,25 +26070,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>8.101776857255985</v>
       </c>
       <c r="S46" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>82.38035503488683</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>808738.510427735</v>
+        <v>808738.5104277352</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>808738.510427735</v>
+        <v>808738.5104277352</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>808738.510427735</v>
+        <v>808738.5104277349</v>
       </c>
     </row>
     <row r="11">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>808738.510427735</v>
+        <v>808738.5104277352</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>808738.510427735</v>
+        <v>808738.5104277353</v>
       </c>
     </row>
   </sheetData>
@@ -26311,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>595255.2831516045</v>
+        <v>595255.2831516046</v>
       </c>
       <c r="C2" t="n">
-        <v>595255.2831516048</v>
+        <v>595255.2831516047</v>
       </c>
       <c r="D2" t="n">
-        <v>595255.2831516047</v>
+        <v>595255.2831516049</v>
       </c>
       <c r="E2" t="n">
         <v>566992.1366196779</v>
       </c>
       <c r="F2" t="n">
-        <v>566992.1366196779</v>
+        <v>566992.1366196781</v>
       </c>
       <c r="G2" t="n">
         <v>566992.136619678</v>
@@ -26335,25 +26337,25 @@
         <v>566992.1366196782</v>
       </c>
       <c r="J2" t="n">
-        <v>566992.1366196783</v>
+        <v>566992.1366196779</v>
       </c>
       <c r="K2" t="n">
+        <v>566992.1366196781</v>
+      </c>
+      <c r="L2" t="n">
+        <v>566992.1366196779</v>
+      </c>
+      <c r="M2" t="n">
+        <v>566992.1366196779</v>
+      </c>
+      <c r="N2" t="n">
+        <v>566992.1366196779</v>
+      </c>
+      <c r="O2" t="n">
         <v>566992.136619678</v>
       </c>
-      <c r="L2" t="n">
-        <v>566992.136619678</v>
-      </c>
-      <c r="M2" t="n">
-        <v>566992.1366196778</v>
-      </c>
-      <c r="N2" t="n">
-        <v>566992.1366196781</v>
-      </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>566992.1366196779</v>
-      </c>
-      <c r="P2" t="n">
-        <v>566992.136619678</v>
       </c>
     </row>
     <row r="3">
@@ -26369,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768957</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,7 +26383,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>3.482032298052218e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26390,13 +26392,13 @@
         <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2.825677256623749e-10</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.015233837</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>147917.0487159209</v>
+        <v>147917.0487159208</v>
       </c>
       <c r="C4" t="n">
-        <v>147917.0487159209</v>
+        <v>147917.0487159208</v>
       </c>
       <c r="D4" t="n">
         <v>147917.0487159208</v>
       </c>
       <c r="E4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007485</v>
       </c>
       <c r="F4" t="n">
         <v>7916.731656007484</v>
       </c>
       <c r="G4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007485</v>
       </c>
       <c r="H4" t="n">
         <v>7916.731656007483</v>
       </c>
       <c r="I4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="J4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="K4" t="n">
         <v>7916.731656007483</v>
       </c>
       <c r="L4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="M4" t="n">
         <v>7916.731656007483</v>
       </c>
       <c r="N4" t="n">
-        <v>7916.731656007525</v>
+        <v>7916.731656007516</v>
       </c>
       <c r="O4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.73165600748</v>
       </c>
       <c r="P4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007481</v>
       </c>
     </row>
     <row r="5">
@@ -26473,7 +26475,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871662</v>
@@ -26488,16 +26490,16 @@
         <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="M5" t="n">
         <v>91987.32594871664</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-225488.7228422704</v>
+        <v>-225488.7228422702</v>
       </c>
       <c r="C6" t="n">
-        <v>364479.1563722745</v>
+        <v>364479.1563722744</v>
       </c>
       <c r="D6" t="n">
         <v>364479.1563722744</v>
       </c>
       <c r="E6" t="n">
-        <v>-58071.95746194234</v>
+        <v>-58071.9574619419</v>
       </c>
       <c r="F6" t="n">
-        <v>467088.0790149538</v>
+        <v>467088.079014954</v>
       </c>
       <c r="G6" t="n">
         <v>467088.0790149539</v>
       </c>
       <c r="H6" t="n">
+        <v>467088.0790149535</v>
+      </c>
+      <c r="I6" t="n">
+        <v>467088.0790149545</v>
+      </c>
+      <c r="J6" t="n">
+        <v>290664.8598223609</v>
+      </c>
+      <c r="K6" t="n">
+        <v>467088.0790149537</v>
+      </c>
+      <c r="L6" t="n">
+        <v>467088.0790149537</v>
+      </c>
+      <c r="M6" t="n">
+        <v>332287.0637811167</v>
+      </c>
+      <c r="N6" t="n">
         <v>467088.0790149538</v>
       </c>
-      <c r="I6" t="n">
-        <v>467088.0790149542</v>
-      </c>
-      <c r="J6" t="n">
-        <v>290664.8598223613</v>
-      </c>
-      <c r="K6" t="n">
+      <c r="O6" t="n">
         <v>467088.0790149539</v>
       </c>
-      <c r="L6" t="n">
-        <v>467088.0790149539</v>
-      </c>
-      <c r="M6" t="n">
-        <v>332287.0637811165</v>
-      </c>
-      <c r="N6" t="n">
-        <v>467088.079014954</v>
-      </c>
-      <c r="O6" t="n">
+      <c r="P6" t="n">
         <v>467088.0790149538</v>
-      </c>
-      <c r="P6" t="n">
-        <v>467088.0790149539</v>
       </c>
     </row>
   </sheetData>
@@ -26719,7 +26721,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>3.016897076984856e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26738,13 +26740,13 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170869</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541002</v>
@@ -26753,31 +26755,31 @@
         <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
+        <v>830.3824054541006</v>
+      </c>
+      <c r="I3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="J3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="K3" t="n">
         <v>830.3824054541004</v>
       </c>
-      <c r="I3" t="n">
-        <v>830.3824054541003</v>
-      </c>
-      <c r="J3" t="n">
-        <v>830.3824054541003</v>
-      </c>
-      <c r="K3" t="n">
-        <v>830.3824054541003</v>
-      </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
     </row>
     <row r="4">
@@ -26793,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26814,7 +26816,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="K4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="L4" t="n">
         <v>1215.213643253573</v>
@@ -26963,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370132</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26984,7 +26986,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27036,13 +27038,13 @@
         <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.926370499017</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>218.8388043680905</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27391,13 +27393,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,7 +27426,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -27439,13 +27441,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>39.03327921531269</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27585,25 +27587,25 @@
         <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>83.12091415361536</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>63.3731647155137</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27625,16 +27627,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>259.3273644978284</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,22 +27666,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>107.0060580539447</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27783,7 +27785,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>106.3161002200294</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27795,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27837,7 +27839,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>1.024163562124357</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>66.26435333854488</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27913,10 +27915,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>116.2199130299138</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28011,19 +28013,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>136.7057146380968</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28032,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28068,7 +28070,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28077,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>24.26605543732236</v>
       </c>
     </row>
     <row r="11">
@@ -30223,7 +30225,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>7.83786828543302e-13</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -31282,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31516,46 +31518,46 @@
         <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935141001</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.5445733255447</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405369</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338306</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954668</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633803</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473557</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141114</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188919</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890691</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736702</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034985</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372667</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619156</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644446</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492006</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302244</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31692,28 +31694,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666595</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175849</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383805</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678012</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701166</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31759,40 +31761,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M11" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31832,10 +31834,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215733</v>
@@ -31844,7 +31846,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M12" t="n">
         <v>452.5584109724845</v>
@@ -31853,10 +31855,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q12" t="n">
         <v>227.9948068710956</v>
@@ -31868,7 +31870,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31914,7 +31916,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31932,7 +31934,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
@@ -31944,10 +31946,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U13" t="n">
         <v>0.08167695791351813</v>
@@ -32461,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H20" t="n">
         <v>34.18755300444946</v>
@@ -32470,40 +32472,40 @@
         <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041489</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M20" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565521</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104652</v>
       </c>
       <c r="T20" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32546,7 +32548,7 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127067</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215734</v>
@@ -32555,19 +32557,19 @@
         <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813464</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855528</v>
       </c>
       <c r="P21" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q21" t="n">
         <v>227.9948068710957</v>
@@ -32576,13 +32578,13 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677466</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361493</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M22" t="n">
         <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P22" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q22" t="n">
         <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337673</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351819</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,7 +32788,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32795,10 +32797,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32813,10 +32815,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33050,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33175,7 +33177,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I29" t="n">
         <v>128.6967545176652</v>
@@ -33184,31 +33186,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P29" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33257,31 +33259,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J30" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
@@ -33336,7 +33338,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33348,7 +33350,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N31" t="n">
         <v>229.1447054263751</v>
@@ -33360,19 +33362,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33412,7 +33414,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I32" t="n">
         <v>128.6967545176652</v>
@@ -33421,31 +33423,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P32" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33494,31 +33496,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J33" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
@@ -33573,7 +33575,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33585,7 +33587,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N34" t="n">
         <v>229.1447054263751</v>
@@ -33597,19 +33599,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33649,7 +33651,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I35" t="n">
         <v>128.6967545176652</v>
@@ -33658,31 +33660,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P35" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33731,31 +33733,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J36" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
@@ -33810,7 +33812,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33822,7 +33824,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N37" t="n">
         <v>229.1447054263751</v>
@@ -33834,19 +33836,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33886,7 +33888,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I38" t="n">
         <v>128.6967545176652</v>
@@ -33895,31 +33897,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P38" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33968,31 +33970,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J39" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
@@ -34047,7 +34049,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34059,7 +34061,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N40" t="n">
         <v>229.1447054263751</v>
@@ -34071,19 +34073,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34123,7 +34125,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I41" t="n">
         <v>128.6967545176652</v>
@@ -34132,31 +34134,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P41" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34205,31 +34207,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J42" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
@@ -34284,7 +34286,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34296,7 +34298,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N43" t="n">
         <v>229.1447054263751</v>
@@ -34308,19 +34310,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34360,7 +34362,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I44" t="n">
         <v>128.6967545176652</v>
@@ -34369,31 +34371,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L44" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P44" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34442,31 +34444,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J45" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
@@ -34521,7 +34523,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34533,7 +34535,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N46" t="n">
         <v>229.1447054263751</v>
@@ -34545,19 +34547,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34778,7 +34780,7 @@
         <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
-        <v>138.389756104752</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34796,7 +34798,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060967</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116799</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35252,22 +35254,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N9" t="n">
-        <v>515.9012490932197</v>
+        <v>515.9012490932195</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245899</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35331,10 +35333,10 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713958</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850086</v>
       </c>
       <c r="M10" t="n">
         <v>146.3614835535656</v>
@@ -35343,10 +35345,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873154</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M11" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,28 +35491,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>429.281406629612</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O12" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>269.8880742213565</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507407</v>
       </c>
       <c r="R12" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299105</v>
@@ -35574,7 +35576,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N13" t="n">
         <v>273.2768778056036</v>
@@ -35586,7 +35588,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35899,7 +35901,7 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109128</v>
       </c>
       <c r="Q17" t="n">
         <v>350.4995841502048</v>
@@ -35960,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36118,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221119</v>
       </c>
       <c r="N20" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502049</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349819</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560245</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504665</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>682.9598737318688</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975091996</v>
+        <v>525.556183571462</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686869</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
@@ -36285,19 +36287,19 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187477</v>
+        <v>39.2256999718748</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,13 +36360,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36440,22 +36442,22 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q24" t="n">
-        <v>215.6591577951388</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36528,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36680,16 +36682,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36750,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36765,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36835,25 +36837,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,13 +36913,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N30" t="n">
         <v>333.1945733980129</v>
@@ -36926,7 +36928,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36987,19 +36989,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K31" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M31" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O31" t="n">
         <v>236.2373515206029</v>
@@ -37008,7 +37010,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37072,25 +37074,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M33" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315247</v>
+        <v>484.7652115523309</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,19 +37226,19 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K34" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M34" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O34" t="n">
         <v>236.2373515206029</v>
@@ -37245,7 +37247,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37309,25 +37311,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,13 +37387,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N36" t="n">
         <v>333.1945733980129</v>
@@ -37400,13 +37402,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975091999</v>
+        <v>484.7652115523309</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,19 +37463,19 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K37" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M37" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O37" t="n">
         <v>236.2373515206029</v>
@@ -37482,7 +37484,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37546,25 +37548,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M39" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315247</v>
+        <v>484.7652115523309</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,19 +37700,19 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K40" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M40" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O40" t="n">
         <v>236.2373515206029</v>
@@ -37719,7 +37721,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37783,25 +37785,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.32965022211</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,13 +37861,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N42" t="n">
         <v>333.1945733980129</v>
@@ -37874,13 +37876,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975091999</v>
+        <v>484.7652115523309</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,19 +37937,19 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K43" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M43" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O43" t="n">
         <v>236.2373515206029</v>
@@ -37956,7 +37958,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38020,25 +38022,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M45" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,19 +38174,19 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K46" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M46" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O46" t="n">
         <v>236.2373515206029</v>
@@ -38193,7 +38195,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_1_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_1_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2587845.826099877</v>
+        <v>2592785.088948908</v>
       </c>
     </row>
     <row r="7">
@@ -673,7 +673,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>284.5615160058696</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>325.2557485598865</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -743,10 +743,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646384</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>157.6450804554007</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -758,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -873,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>234.4871813790489</v>
+        <v>234.4871813790491</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -904,19 +904,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>353.4869410072736</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>47.33350719796982</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -955,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -1059,16 +1059,16 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>141.55483850657</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>120.0258340400109</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1101,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1144,16 +1144,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>13.62152856464951</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>270.7773459850746</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>59.72683757586846</v>
       </c>
       <c r="C10" t="n">
-        <v>43.31785343913975</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1356,10 +1356,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1375,13 +1375,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206845</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>411.9645167896915</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,19 +1420,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0785952498011</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174149</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1466,10 +1466,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H12" t="n">
-        <v>94.98542483262919</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014439</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T12" t="n">
         <v>192.9654699154601</v>
@@ -1530,7 +1530,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1539,10 +1539,10 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>113.682965289836</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -1581,22 +1581,22 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>188.1607094910725</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1615,10 +1615,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722641</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.876045741713</v>
       </c>
       <c r="G14" t="n">
         <v>411.9645167896915</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1663,13 +1663,13 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0785952498011</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1703,10 +1703,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H15" t="n">
-        <v>94.98542483262919</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014439</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T15" t="n">
         <v>192.9654699154601</v>
@@ -1764,25 +1764,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>144.5032405574166</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>140.5678108961707</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>166.4935684633725</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037927</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1830,7 +1830,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1903,7 +1903,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
-        <v>327.752258470137</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1940,10 +1940,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H18" t="n">
-        <v>94.98542483262919</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.9013320701444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T18" t="n">
         <v>192.9654699154601</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>143.3158222056523</v>
+        <v>33.35146980185876</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T21" t="n">
         <v>192.9654699154601</v>
@@ -2292,7 +2292,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>139.153727875004</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T24" t="n">
         <v>192.9654699154601</v>
@@ -2529,10 +2529,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U25" t="n">
-        <v>203.8435192151925</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2572,10 +2572,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T27" t="n">
         <v>192.9654699154601</v>
@@ -2730,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
@@ -2778,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>143.3158222056522</v>
+        <v>192.3228038217186</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
@@ -3009,7 +3009,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>169.7438101404424</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3082,7 +3082,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385011</v>
       </c>
       <c r="U32" t="n">
         <v>251.078595249801</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
@@ -3249,13 +3249,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>211.2541671901477</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051975</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3432,13 +3432,13 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>71.03759657939359</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3474,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>143.3158222056514</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3568,7 +3568,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.7311006784703</v>
+        <v>369.7311006784677</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3675,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>4.467071307536467</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>197.9208099836032</v>
@@ -3717,19 +3717,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>271.7818641996879</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3951,22 +3951,22 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>148.5981929409091</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>94.01765267707079</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4191,7 +4191,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>203.8435192151918</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1591.868758816787</v>
+        <v>1865.381229508782</v>
       </c>
       <c r="C2" t="n">
-        <v>1222.906241876376</v>
+        <v>1496.41871256837</v>
       </c>
       <c r="D2" t="n">
-        <v>864.6405432696254</v>
+        <v>1138.15301396162</v>
       </c>
       <c r="E2" t="n">
-        <v>478.8522906713811</v>
+        <v>752.3647613633757</v>
       </c>
       <c r="F2" t="n">
-        <v>67.86638588177355</v>
+        <v>341.3788565737681</v>
       </c>
       <c r="G2" t="n">
         <v>53.94298182036445</v>
@@ -4333,16 +4333,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X2" t="n">
-        <v>2368.607930856721</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="Y2" t="n">
-        <v>1978.468598880909</v>
+        <v>2251.981069572904</v>
       </c>
     </row>
     <row r="3">
@@ -4391,7 +4391,7 @@
         <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E3" t="n">
         <v>505.8730812692495</v>
@@ -4494,31 +4494,31 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
         <v>491.2732454397182</v>
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1194.175505447095</v>
+        <v>808.0839286340174</v>
       </c>
       <c r="C5" t="n">
-        <v>1194.175505447095</v>
+        <v>808.0839286340174</v>
       </c>
       <c r="D5" t="n">
-        <v>835.9098068403443</v>
+        <v>449.8182300272669</v>
       </c>
       <c r="E5" t="n">
-        <v>478.8522906713811</v>
+        <v>449.8182300272669</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>442.8727292780634</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>428.9493252166544</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>101.7546052526572</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V5" t="n">
-        <v>2697.149091018222</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W5" t="n">
-        <v>2344.380435748108</v>
+        <v>1958.288858935031</v>
       </c>
       <c r="X5" t="n">
-        <v>1970.914677487028</v>
+        <v>1584.823100673951</v>
       </c>
       <c r="Y5" t="n">
-        <v>1580.775345511217</v>
+        <v>1194.683768698139</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4649,40 +4649,40 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>513.8405610245969</v>
+        <v>325.2978374347314</v>
       </c>
       <c r="C7" t="n">
-        <v>513.8405610245969</v>
+        <v>325.2978374347314</v>
       </c>
       <c r="D7" t="n">
-        <v>370.8558756644252</v>
+        <v>175.1811980223956</v>
       </c>
       <c r="E7" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036445</v>
@@ -4749,28 +4749,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S7" t="n">
-        <v>513.8405610245969</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T7" t="n">
-        <v>513.8405610245969</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="U7" t="n">
-        <v>513.8405610245969</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="V7" t="n">
-        <v>513.8405610245969</v>
+        <v>325.2978374347314</v>
       </c>
       <c r="W7" t="n">
-        <v>513.8405610245969</v>
+        <v>325.2978374347314</v>
       </c>
       <c r="X7" t="n">
-        <v>513.8405610245969</v>
+        <v>325.2978374347314</v>
       </c>
       <c r="Y7" t="n">
-        <v>513.8405610245969</v>
+        <v>325.2978374347314</v>
       </c>
     </row>
     <row r="8">
@@ -4780,43 +4780,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1591.868758816787</v>
+        <v>2079.343073798764</v>
       </c>
       <c r="C8" t="n">
-        <v>1222.906241876376</v>
+        <v>1710.380556858352</v>
       </c>
       <c r="D8" t="n">
-        <v>864.6405432696254</v>
+        <v>1352.114858251602</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>966.3266056533573</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4831,25 +4831,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X8" t="n">
-        <v>2368.607930856721</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="Y8" t="n">
-        <v>1978.468598880909</v>
+        <v>2465.942913862886</v>
       </c>
     </row>
     <row r="9">
@@ -4859,19 +4859,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
         <v>221.4284102424006</v>
@@ -4883,43 +4883,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4938,16 +4938,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>97.69838933464703</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
         <v>53.94298182036445</v>
@@ -5004,10 +5004,10 @@
         <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>500.1394333084169</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>279.3468541648867</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D11" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028593</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643326</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899129</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207832</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014296</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231266</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.97260014187</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465304</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121733</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="12">
@@ -5117,28 +5117,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028593</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256437</v>
+        <v>138.7081686256436</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277037</v>
+        <v>287.7778528277036</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341681</v>
+        <v>901.6749225845924</v>
       </c>
       <c r="M12" t="n">
-        <v>1302.91112712663</v>
+        <v>1208.995055864554</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O12" t="n">
         <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918914</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>247.6350999123426</v>
+        <v>699.5778825909703</v>
       </c>
       <c r="C13" t="n">
-        <v>247.6350999123426</v>
+        <v>530.6416996630634</v>
       </c>
       <c r="D13" t="n">
-        <v>247.6350999123426</v>
+        <v>530.6416996630634</v>
       </c>
       <c r="E13" t="n">
-        <v>247.6350999123426</v>
+        <v>530.6416996630634</v>
       </c>
       <c r="F13" t="n">
-        <v>247.6350999123426</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G13" t="n">
         <v>247.6350999123426</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028593</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028593</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241959</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688075</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799369</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471198</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N13" t="n">
-        <v>1049.608084974668</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980066</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585748</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557904</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557904</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557904</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T13" t="n">
-        <v>1308.854947839649</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U13" t="n">
-        <v>1019.726309053208</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V13" t="n">
-        <v>765.0418208473207</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="W13" t="n">
-        <v>475.62465081036</v>
+        <v>920.3704617345004</v>
       </c>
       <c r="X13" t="n">
-        <v>247.6350999123426</v>
+        <v>920.3704617345004</v>
       </c>
       <c r="Y13" t="n">
-        <v>247.6350999123426</v>
+        <v>699.5778825909703</v>
       </c>
     </row>
     <row r="14">
@@ -5254,34 +5254,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550605</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610194</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003443</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F14" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J14" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823788</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514089</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795207</v>
@@ -5293,37 +5293,37 @@
         <v>3183.709822619129</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643326</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899129</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014295</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231266</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.97260014187</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465304</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121733</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851619</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590539</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614727</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="15">
@@ -5345,7 +5345,7 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G15" t="n">
         <v>221.3451287358148</v>
@@ -5354,31 +5354,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256436</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277037</v>
+        <v>634.0455001582206</v>
       </c>
       <c r="L15" t="n">
-        <v>901.6749225845925</v>
+        <v>880.8106280646848</v>
       </c>
       <c r="M15" t="n">
-        <v>1208.995055864554</v>
+        <v>1188.130761344647</v>
       </c>
       <c r="N15" t="n">
-        <v>1538.857683528587</v>
+        <v>1517.99338900868</v>
       </c>
       <c r="O15" t="n">
-        <v>2016.139981183167</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918914</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>964.1357418247878</v>
+        <v>524.8400981009057</v>
       </c>
       <c r="C16" t="n">
-        <v>964.1357418247878</v>
+        <v>524.8400981009057</v>
       </c>
       <c r="D16" t="n">
-        <v>822.148054050878</v>
+        <v>524.8400981009057</v>
       </c>
       <c r="E16" t="n">
-        <v>674.2349604684849</v>
+        <v>376.9270045185126</v>
       </c>
       <c r="F16" t="n">
-        <v>527.3450129705745</v>
+        <v>376.9270045185126</v>
       </c>
       <c r="G16" t="n">
-        <v>359.1696912903951</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H16" t="n">
         <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241958</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688075</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799377</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471205</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N16" t="n">
-        <v>1049.608084974668</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980065</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585748</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557904</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.84116711973</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.921157035282</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T16" t="n">
-        <v>964.1357418247878</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="U16" t="n">
-        <v>964.1357418247878</v>
+        <v>898.7925182488389</v>
       </c>
       <c r="V16" t="n">
-        <v>964.1357418247878</v>
+        <v>898.7925182488389</v>
       </c>
       <c r="W16" t="n">
-        <v>964.1357418247878</v>
+        <v>898.7925182488389</v>
       </c>
       <c r="X16" t="n">
-        <v>964.1357418247878</v>
+        <v>670.8029673508215</v>
       </c>
       <c r="Y16" t="n">
-        <v>964.1357418247878</v>
+        <v>670.8029673508215</v>
       </c>
     </row>
     <row r="17">
@@ -5503,22 +5503,22 @@
         <v>1315.304916405198</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155901</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I17" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795207</v>
@@ -5527,28 +5527,28 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899129</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207832</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014295</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231266</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.97260014187</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465304</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V17" t="n">
         <v>3931.294970121731</v>
@@ -5591,28 +5591,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J18" t="n">
         <v>263.5382936126483</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571612</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636255</v>
+        <v>921.193690363625</v>
       </c>
       <c r="M18" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526318</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>2358.217138262065</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5649,40 +5649,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C19" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D19" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E19" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F19" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G19" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H19" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I19" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241958</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688074</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799368</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5691,34 +5691,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473456</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.210845262961</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U19" t="n">
-        <v>786.0822064765196</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V19" t="n">
-        <v>531.3977182706327</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="W19" t="n">
-        <v>241.9805482336721</v>
+        <v>130.9054447954967</v>
       </c>
       <c r="X19" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028589</v>
       </c>
     </row>
     <row r="20">
@@ -5728,31 +5728,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155899</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028591</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J20" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
         <v>889.2841917514088</v>
@@ -5761,43 +5761,43 @@
         <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5828,28 +5828,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571611</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636254</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2358.217138262065</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5886,40 +5886,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5928,34 +5928,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1158.436939387593</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U22" t="n">
-        <v>869.3083006011508</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V22" t="n">
-        <v>614.6238123952639</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W22" t="n">
-        <v>325.2066423583033</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5968,7 +5968,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
         <v>1701.09316900344</v>
@@ -5983,34 +5983,34 @@
         <v>488.1932370805467</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014292</v>
@@ -6022,16 +6022,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614724</v>
@@ -6056,37 +6056,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636253</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>2016.139981183167</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6147,16 +6147,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6165,19 +6165,19 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.210845262961</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U25" t="n">
         <v>869.3083006011506</v>
@@ -6202,52 +6202,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
@@ -6293,40 +6293,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636253</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1503.408902298184</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
-        <v>1833.271529962217</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>2112.811595180915</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H28" t="n">
         <v>97.21709146028584</v>
@@ -6384,16 +6384,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6402,34 +6402,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.210845262961</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U28" t="n">
-        <v>786.0822064765193</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V28" t="n">
-        <v>531.3977182706325</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W28" t="n">
-        <v>241.9805482336719</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
     </row>
     <row r="29">
@@ -6460,13 +6460,13 @@
         <v>179.8222783822458</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6481,10 +6481,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014292</v>
@@ -6648,13 +6648,13 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T31" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U31" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V31" t="n">
         <v>614.6238123952637</v>
@@ -6676,40 +6676,40 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J32" t="n">
         <v>365.8813331823786</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N32" t="n">
         <v>3183.709822619127</v>
@@ -6724,28 +6724,28 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6767,40 +6767,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K33" t="n">
-        <v>485.5200852635878</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L33" t="n">
-        <v>1099.417155020476</v>
+        <v>921.1936903636248</v>
       </c>
       <c r="M33" t="n">
-        <v>1406.737288300438</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
-        <v>1736.599915964471</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6885,25 +6885,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T34" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U34" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V34" t="n">
-        <v>531.3977182706318</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W34" t="n">
-        <v>318.0096706038159</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
-        <v>318.0096706038159</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="Y34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="35">
@@ -6913,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6928,19 +6928,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6961,7 +6961,7 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -6970,19 +6970,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7004,19 +7004,19 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G36" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K36" t="n">
         <v>549.5984374701561</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028587</v>
+        <v>484.0375086983692</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028587</v>
+        <v>484.0375086983692</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028587</v>
+        <v>484.0375086983692</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028587</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7116,31 +7116,31 @@
         <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557898</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557898</v>
       </c>
       <c r="S37" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557898</v>
       </c>
       <c r="T37" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557898</v>
       </c>
       <c r="U37" t="n">
-        <v>786.0822064765186</v>
+        <v>1209.787631771456</v>
       </c>
       <c r="V37" t="n">
-        <v>531.3977182706318</v>
+        <v>955.1031435655694</v>
       </c>
       <c r="W37" t="n">
-        <v>241.9805482336712</v>
+        <v>665.6859735286089</v>
       </c>
       <c r="X37" t="n">
-        <v>97.21709146028587</v>
+        <v>665.6859735286089</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.21709146028587</v>
+        <v>665.6859735286089</v>
       </c>
     </row>
     <row r="38">
@@ -7165,55 +7165,55 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J38" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514089</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
         <v>3205.060556590537</v>
@@ -7241,34 +7241,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571611</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636253</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
         <v>2317.834075963124</v>
@@ -7308,40 +7308,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>420.3226148324578</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C40" t="n">
-        <v>420.3226148324578</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D40" t="n">
-        <v>420.3226148324578</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E40" t="n">
-        <v>420.3226148324578</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F40" t="n">
-        <v>420.3226148324578</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G40" t="n">
-        <v>252.1472931522784</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H40" t="n">
-        <v>101.7292847002217</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J40" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7350,34 +7350,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1187.921157035281</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>964.1357418247865</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U40" t="n">
-        <v>675.0071030383447</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V40" t="n">
-        <v>420.3226148324578</v>
+        <v>820.5263570570736</v>
       </c>
       <c r="W40" t="n">
-        <v>420.3226148324578</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X40" t="n">
-        <v>420.3226148324578</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y40" t="n">
-        <v>420.3226148324578</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="41">
@@ -7402,7 +7402,7 @@
         <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822458</v>
@@ -7414,7 +7414,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7423,13 +7423,13 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
         <v>4801.62743720783</v>
@@ -7499,7 +7499,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
         <v>1558.376451307619</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>581.2185435662825</v>
+        <v>994.3109288932102</v>
       </c>
       <c r="C43" t="n">
-        <v>412.2823606383756</v>
+        <v>825.3747459653033</v>
       </c>
       <c r="D43" t="n">
-        <v>412.2823606383756</v>
+        <v>675.2581065529675</v>
       </c>
       <c r="E43" t="n">
-        <v>412.2823606383756</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F43" t="n">
-        <v>265.3924131404652</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028584</v>
@@ -7599,22 +7599,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U43" t="n">
-        <v>986.0022165609664</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V43" t="n">
-        <v>731.3177283550796</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W43" t="n">
-        <v>581.2185435662825</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="X43" t="n">
-        <v>581.2185435662825</v>
+        <v>1270.926719659885</v>
       </c>
       <c r="Y43" t="n">
-        <v>581.2185435662825</v>
+        <v>1175.95939372345</v>
       </c>
     </row>
     <row r="44">
@@ -7636,25 +7636,25 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
@@ -7675,10 +7675,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U44" t="n">
         <v>4262.3578574653</v>
@@ -7736,7 +7736,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
         <v>1558.376451307619</v>
@@ -7839,13 +7839,13 @@
         <v>1075.21084526296</v>
       </c>
       <c r="U46" t="n">
-        <v>869.3083006011506</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V46" t="n">
-        <v>614.6238123952637</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W46" t="n">
-        <v>325.2066423583032</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X46" t="n">
         <v>97.21709146028584</v>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270195</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951781</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8297,7 +8297,7 @@
         <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719084</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8546,13 +8546,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>274.4264991783522</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8774,16 +8774,16 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>423.33767891651</v>
+        <v>124.3400780863221</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.7842838544521</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9005,13 +9005,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>223.6742649934469</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9020,16 +9020,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>199.7396287231134</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.7842838544521</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q18" t="n">
-        <v>180.0237016735856</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445211</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q21" t="n">
-        <v>180.0237016735861</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445213</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9646,7 +9646,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928303</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
         <v>437.3469244119842</v>
@@ -9731,16 +9731,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>180.023701673586</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445213</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298008</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9962,7 +9962,7 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>277.6717966208053</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10427,13 +10427,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>199.7396287231157</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298203</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10919,7 +10919,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208057</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11156,7 +11156,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208067</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11305,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11393,7 +11393,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208067</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -23418,7 +23418,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23427,10 +23427,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>31.73808273309524</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037927</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>33.38685156731677</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23652,25 +23652,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>35.32873962452067</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>8.047662122041686</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23706,10 +23706,10 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23718,7 +23718,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037927</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>82.39383318338483</v>
+        <v>192.3581855871784</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24180,7 +24180,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>82.39383318338525</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24417,10 +24417,10 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U25" t="n">
-        <v>82.39383318338488</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24618,7 +24618,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24651,7 +24651,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>82.393833183385</v>
+        <v>33.38685156731853</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24888,7 +24888,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24897,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>82.39383318338562</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25125,7 +25125,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25137,13 +25137,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>75.26883114644332</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25320,13 +25320,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>75.39636606717558</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>148.9138283675361</v>
@@ -25362,10 +25362,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>82.39383318338571</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25563,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>105.9521741567355</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25605,19 +25605,19 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>14.7411341369031</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25785,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25839,22 +25839,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>137.9248053956819</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>124.567000675024</v>
       </c>
     </row>
     <row r="44">
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>82.39383318338557</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>808738.5104277352</v>
+        <v>808738.5104277353</v>
       </c>
     </row>
     <row r="7">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>808738.510427735</v>
+        <v>808738.5104277348</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>808738.510427735</v>
+        <v>808738.5104277352</v>
       </c>
     </row>
     <row r="16">
@@ -26313,40 +26313,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>595255.2831516047</v>
+        <v>595255.2831516046</v>
       </c>
       <c r="C2" t="n">
-        <v>595255.2831516049</v>
+        <v>595255.2831516048</v>
       </c>
       <c r="D2" t="n">
-        <v>595255.2831516048</v>
+        <v>595255.2831516046</v>
       </c>
       <c r="E2" t="n">
+        <v>566992.1366196782</v>
+      </c>
+      <c r="F2" t="n">
         <v>566992.136619678</v>
       </c>
-      <c r="F2" t="n">
-        <v>566992.1366196778</v>
-      </c>
       <c r="G2" t="n">
+        <v>566992.1366196781</v>
+      </c>
+      <c r="H2" t="n">
+        <v>566992.1366196782</v>
+      </c>
+      <c r="I2" t="n">
+        <v>566992.1366196781</v>
+      </c>
+      <c r="J2" t="n">
         <v>566992.1366196779</v>
-      </c>
-      <c r="H2" t="n">
-        <v>566992.1366196781</v>
-      </c>
-      <c r="I2" t="n">
-        <v>566992.1366196778</v>
-      </c>
-      <c r="J2" t="n">
-        <v>566992.1366196777</v>
       </c>
       <c r="K2" t="n">
         <v>566992.1366196781</v>
       </c>
       <c r="L2" t="n">
-        <v>566992.1366196779</v>
+        <v>566992.136619678</v>
       </c>
       <c r="M2" t="n">
-        <v>566992.136619678</v>
+        <v>566992.1366196781</v>
       </c>
       <c r="N2" t="n">
         <v>566992.136619678</v>
@@ -26355,7 +26355,7 @@
         <v>566992.136619678</v>
       </c>
       <c r="P2" t="n">
-        <v>566992.1366196779</v>
+        <v>566992.1366196777</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768968</v>
+        <v>525160.0364768965</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26398,10 +26398,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338374</v>
+        <v>134801.0152338373</v>
       </c>
       <c r="N3" t="n">
-        <v>2.354388470848789e-10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26426,40 +26426,40 @@
         <v>147917.0487159208</v>
       </c>
       <c r="E4" t="n">
-        <v>7916.731656007367</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="F4" t="n">
-        <v>7916.731656007367</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="G4" t="n">
-        <v>7916.73165600739</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="H4" t="n">
-        <v>7916.731656007482</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="I4" t="n">
-        <v>7916.731656007479</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="J4" t="n">
-        <v>7916.731656007479</v>
+        <v>7916.731656007485</v>
       </c>
       <c r="K4" t="n">
         <v>7916.731656007484</v>
       </c>
       <c r="L4" t="n">
-        <v>7916.731656007485</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="M4" t="n">
-        <v>7916.731656007487</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="N4" t="n">
-        <v>7916.731656007424</v>
+        <v>7916.731656007546</v>
       </c>
       <c r="O4" t="n">
         <v>7916.731656007484</v>
       </c>
       <c r="P4" t="n">
-        <v>7916.731656007485</v>
+        <v>7916.731656007484</v>
       </c>
     </row>
     <row r="5">
@@ -26478,40 +26478,40 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871669</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871668</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871668</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="M5" t="n">
+        <v>91987.32594871661</v>
+      </c>
+      <c r="N5" t="n">
+        <v>91987.32594871661</v>
+      </c>
+      <c r="O5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="N5" t="n">
-        <v>91987.32594871667</v>
-      </c>
-      <c r="O5" t="n">
-        <v>91987.32594871662</v>
-      </c>
       <c r="P5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-225488.72284227</v>
+        <v>-225488.7228422702</v>
       </c>
       <c r="C6" t="n">
-        <v>364479.1563722746</v>
+        <v>364479.1563722745</v>
       </c>
       <c r="D6" t="n">
-        <v>364479.1563722745</v>
+        <v>364479.1563722743</v>
       </c>
       <c r="E6" t="n">
-        <v>-59046.54872166454</v>
+        <v>-58169.41658791457</v>
       </c>
       <c r="F6" t="n">
-        <v>466113.4877552321</v>
+        <v>466990.6198889817</v>
       </c>
       <c r="G6" t="n">
-        <v>466113.4877552322</v>
+        <v>466990.619888982</v>
       </c>
       <c r="H6" t="n">
-        <v>466113.4877552323</v>
+        <v>466990.6198889821</v>
       </c>
       <c r="I6" t="n">
-        <v>466113.4877552323</v>
+        <v>466990.6198889819</v>
       </c>
       <c r="J6" t="n">
-        <v>289690.2685626389</v>
+        <v>290567.4006963887</v>
       </c>
       <c r="K6" t="n">
-        <v>466113.4877552327</v>
+        <v>466990.6198889819</v>
       </c>
       <c r="L6" t="n">
-        <v>466113.4877552321</v>
+        <v>466990.6198889817</v>
       </c>
       <c r="M6" t="n">
-        <v>331312.4725213948</v>
+        <v>332189.6046551446</v>
       </c>
       <c r="N6" t="n">
-        <v>466113.487755232</v>
+        <v>466990.6198889816</v>
       </c>
       <c r="O6" t="n">
-        <v>466113.4877552325</v>
+        <v>466990.6198889817</v>
       </c>
       <c r="P6" t="n">
-        <v>466113.4877552321</v>
+        <v>466990.6198889814</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26746,22 +26746,22 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541009</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541009</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541008</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541006</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541006</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541006</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
         <v>830.3824054541002</v>
@@ -26773,13 +26773,13 @@
         <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26807,7 +26807,7 @@
         <v>1215.213643253574</v>
       </c>
       <c r="H4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="I4" t="n">
         <v>1215.213643253573</v>
@@ -26825,7 +26825,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="N4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="O4" t="n">
         <v>1215.213643253573</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370142</v>
+        <v>452.6387412370139</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26995,7 +26995,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990184</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990186</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990184</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27393,7 +27393,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>129.2226540149254</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -27426,7 +27426,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -27444,7 +27444,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>44.47535211858258</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27557,10 +27557,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,10 +27581,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27593,7 +27593,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>51.79469286292885</v>
+        <v>51.79469286292863</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27624,19 +27624,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>28.44342906498821</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>104.5978090468914</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -27675,7 +27675,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27779,16 +27779,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>7.060634511642348</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>26.40812860655829</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27821,10 +27821,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27833,7 +27833,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27864,16 +27864,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>393.2545171770619</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -27918,10 +27918,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>98.95375469339439</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28010,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>120.1051426060688</v>
       </c>
       <c r="C10" t="n">
-        <v>123.9289676594881</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28076,10 +28076,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28104,13 +28104,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>-3.424797337261525e-14</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>-7.240552984763655e-14</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>-7.240552984763655e-14</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28140,19 +28140,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>-7.240552984763655e-14</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>-7.240552984763655e-14</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>-7.240552984763655e-14</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>-7.240552984763655e-14</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>-1.932676241267473e-12</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -28286,7 +28286,7 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>8.34817068602437e-13</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -28332,22 +28332,22 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-7.240552984763655e-14</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>-2.273736754432321e-12</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>-8.463989355239118e-13</v>
       </c>
       <c r="G14" t="n">
-        <v>-7.240552984763655e-14</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>-7.240552984763655e-14</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>-7.240552984763655e-14</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28383,19 +28383,19 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>-7.240552984763655e-14</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>-7.240552984763655e-14</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>-7.240552984763655e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -28499,7 +28499,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>5.090328158985358e-12</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -28514,7 +28514,7 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>7.652760672925424e-13</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
@@ -30036,7 +30036,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>1.335820343228988e-12</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -30188,7 +30188,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>-2.147365782211761e-12</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -30288,7 +30288,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -31041,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31223,22 +31223,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443619</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444947</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176653</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041491</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304443</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565522</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N11" t="n">
-        <v>595.647069592719</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O11" t="n">
-        <v>562.452637254089</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946996</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647499</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104654</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354895</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354104</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386727</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127069</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215735</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622985</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724849</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813465</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855529</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458552</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710958</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R12" t="n">
-        <v>110.8952201095119</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677467</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361495</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31916,43 +31916,43 @@
         <v>13.31334413990346</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298633</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J13" t="n">
-        <v>105.8669502822384</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
         <v>173.9719203557935</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196126</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171321</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263752</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065634</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
         <v>125.3877432235692</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337674</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336903</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T13" t="n">
-        <v>6.39802836989225</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0816769579135182</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443619</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444947</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176653</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041491</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304443</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565522</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N14" t="n">
-        <v>595.647069592719</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O14" t="n">
-        <v>562.452637254089</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946996</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647499</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104654</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T14" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354895</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354104</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386727</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127069</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215735</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622985</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724849</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813465</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855529</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458552</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710958</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R15" t="n">
-        <v>110.8952201095119</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677467</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361495</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32153,43 +32153,43 @@
         <v>13.31334413990346</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298633</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J16" t="n">
-        <v>105.8669502822384</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
         <v>173.9719203557935</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196126</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171321</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263752</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065634</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P16" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
         <v>125.3877432235692</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337674</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336903</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T16" t="n">
-        <v>6.39802836989225</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U16" t="n">
-        <v>0.0816769579135182</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443619</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444947</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041491</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304443</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565522</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927189</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540889</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104654</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354104</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
-        <v>17.25001940386727</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127068</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215735</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622984</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724849</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813465</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855529</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458551</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710958</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677467</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361494</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298632</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
-        <v>105.8669502822384</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196126</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171321</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263752</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P19" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337674</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892249</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.0816769579135182</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
-        <v>424.634194604149</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304442</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565521</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104652</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127067</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813464</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855528</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458551</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677466</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361493</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298632</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263752</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P22" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337673</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351819</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
-        <v>424.634194604149</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304442</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565521</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104652</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127067</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813464</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855528</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458551</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677466</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361493</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298632</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263752</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P25" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337673</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351819</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
-        <v>424.634194604149</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304442</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565521</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104652</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127067</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813464</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855528</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458551</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677466</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361493</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H28" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298632</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K28" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L28" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263752</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P28" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337673</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351819</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33885,10 +33885,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
         <v>128.6967545176652</v>
@@ -33897,37 +33897,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33970,31 +33970,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
@@ -34003,7 +34003,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H40" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K40" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L40" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P40" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34149,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34158,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34210,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34219,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34237,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34395,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34447,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34456,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34474,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,25 +34698,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730631</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34874,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35017,7 +35017,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35035,7 +35035,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35266,13 +35266,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>325.1459203262125</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415081</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109075</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M11" t="n">
-        <v>805.329650222112</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081123</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951476</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109127</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502051</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349825</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.9101789549068</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879395</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560246</v>
+        <v>620.0980502594837</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004665</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N12" t="n">
-        <v>756.5322523145231</v>
+        <v>457.5346514843351</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411085</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315249</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507427</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.5077701655656</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299107</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799287</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M13" t="n">
         <v>274.3098411789726</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206039</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187485</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415081</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109075</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M14" t="n">
-        <v>805.329650222112</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081123</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951476</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109127</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502051</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349825</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.9101789549068</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879395</v>
+        <v>374.2497035813862</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594837</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504666</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980132</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O15" t="n">
-        <v>482.1033309642219</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P15" t="n">
-        <v>525.556183571462</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507427</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686868</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.5077701655656</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299107</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799295</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
         <v>274.3098411789726</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O16" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187485</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109075</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.329650222112</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081122</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951475</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349822</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>415.040675600518</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560246</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504665</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980132</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411085</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>525.556183571462</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q18" t="n">
-        <v>268.0367344586599</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556559</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299107</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799287</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187483</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303332</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221119</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349819</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560245</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504665</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>525.556183571462</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q21" t="n">
-        <v>268.0367344586603</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556557</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.2256999718748</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303332</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221098</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349819</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560245</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504665</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>462.3874039146943</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>525.556183571462</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507422</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556557</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.2256999718748</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303332</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221119</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349582</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560245</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>588.0961736712718</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686869</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556557</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.2256999718748</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,13 +37147,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>350.3150673110549</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
         <v>310.4243770504662</v>
@@ -37165,13 +37165,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37484,7 +37484,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187031</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349816</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523304</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686868</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,19 +37700,19 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M40" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
         <v>236.2373515206029</v>
@@ -37721,7 +37721,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,13 +37782,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37867,22 +37867,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523313</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,13 +38019,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38104,22 +38104,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523313</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
